--- a/js/xlsx/Weapon.xlsx
+++ b/js/xlsx/Weapon.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\UnityNetworkProject\js\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHW\Documents\UnityNetworkProject\js\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA09DB-E319-4ACF-B53E-90B7C99E479E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="10845"/>
+    <workbookView xWindow="5385" yWindow="1170" windowWidth="22980" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>weapon_id</t>
-  </si>
-  <si>
-    <t>weapon_name</t>
-  </si>
-  <si>
-    <t>base_level</t>
   </si>
   <si>
     <t>attack_power</t>
@@ -46,160 +41,36 @@
     <t>crit_damage</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>prefab_name</t>
-  </si>
-  <si>
-    <t>불의 오브</t>
-  </si>
-  <si>
-    <t>불꽃의 힘을 담고 있어, 공격 시 화염을 발산합니다.</t>
   </si>
   <si>
     <t>Orb1</t>
   </si>
   <si>
-    <t>얼음의 오브</t>
-  </si>
-  <si>
-    <t>얼음의 기운을 품고 있어, 적을 얼려버립니다.</t>
-  </si>
-  <si>
     <t>Orb2</t>
-  </si>
-  <si>
-    <t>번개의 오브</t>
-  </si>
-  <si>
-    <t>전격의 힘이 깃들어 있어, 적에게 번개를 내리칩니다.</t>
   </si>
   <si>
     <t>Orb3</t>
   </si>
   <si>
-    <t>대지의 오브</t>
-  </si>
-  <si>
-    <t>대지의 힘이 깃들어 있어, 공격 시 진동을 일으킵니다.</t>
-  </si>
-  <si>
     <t>Orb4</t>
-  </si>
-  <si>
-    <t>바람의 오브</t>
-  </si>
-  <si>
-    <t>바람의 기운이 담겨 있어, 공격 시 강풍을 일으킵니다.</t>
   </si>
   <si>
     <t>Orb5</t>
   </si>
   <si>
-    <t>물의 오브</t>
+    <t>weapon_grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>물의 힘을 담고 있어, 적을 물에 휩싸이게 합니다.</t>
-  </si>
-  <si>
-    <t>Orb6</t>
-  </si>
-  <si>
-    <t>어둠의 오브</t>
-  </si>
-  <si>
-    <t>어둠의 기운이 깃들어 있어, 적을 혼란스럽게 합니다.</t>
-  </si>
-  <si>
-    <t>Orb7</t>
-  </si>
-  <si>
-    <t>빛의 오브</t>
-  </si>
-  <si>
-    <t>빛의 힘을 품고 있어, 적을 눈부시게 합니다.</t>
-  </si>
-  <si>
-    <t>Orb8</t>
-  </si>
-  <si>
-    <t>시간의 오브</t>
-  </si>
-  <si>
-    <t>시간을 조종할 수 있는 힘을 가지고 있습니다.</t>
-  </si>
-  <si>
-    <t>Orb9</t>
-  </si>
-  <si>
-    <t>공간의 오브</t>
-  </si>
-  <si>
-    <t>공간을 왜곡시켜 적의 공격을 피합니다.</t>
-  </si>
-  <si>
-    <t>Orb10</t>
-  </si>
-  <si>
-    <t>혼돈의 오브</t>
-  </si>
-  <si>
-    <t>혼돈의 기운이 깃들어 있어, 적을 혼란스럽게 만듭니다.</t>
-  </si>
-  <si>
-    <t>Orb11</t>
-  </si>
-  <si>
-    <t>질서의 오브</t>
-  </si>
-  <si>
-    <t>질서의 힘을 담고 있어, 공격을 안정적으로 만듭니다.</t>
-  </si>
-  <si>
-    <t>Orb12</t>
-  </si>
-  <si>
-    <t>생명의 오브</t>
-  </si>
-  <si>
-    <t>생명의 기운이 깃들어 있어, 공격 시 생명력을 회복합니다.</t>
-  </si>
-  <si>
-    <t>Orb13</t>
-  </si>
-  <si>
-    <t>죽음의 오브</t>
-  </si>
-  <si>
-    <t>죽음의 힘을 담고 있어, 적을 즉사시킬 확률이 있습니다.</t>
-  </si>
-  <si>
-    <t>Orb14</t>
-  </si>
-  <si>
-    <t>영혼의 오브</t>
-  </si>
-  <si>
-    <t>영혼의 기운이 깃들어 있어, 적의 영혼을 공격합니다.</t>
-  </si>
-  <si>
-    <t>Orb15</t>
-  </si>
-  <si>
-    <t>신성의 오브</t>
-  </si>
-  <si>
-    <t>신성한 힘이 깃들어 있어, 공격 시 치유 효과가 있습니다.</t>
-  </si>
-  <si>
-    <t>Orb16</t>
+    <t>weapon_exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,569 +420,660 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.375" customWidth="1"/>
     <col min="7" max="7" width="54.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1.5</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+      <c r="B3" s="3">
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.02</v>
       </c>
       <c r="E3" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1.55</v>
+        <v>1.17</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
+      <c r="B4" s="3">
+        <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.04</v>
       </c>
       <c r="E4" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1.6</v>
+        <v>1.36</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
+      <c r="B5" s="3">
+        <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.06</v>
       </c>
       <c r="E5" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1.65</v>
+        <v>1.58</v>
+      </c>
+      <c r="F5">
+        <v>125</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
+      <c r="B6" s="3">
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.08</v>
       </c>
       <c r="E6" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1.7</v>
+        <v>1.85</v>
+      </c>
+      <c r="F6">
+        <v>625</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+      <c r="B7" s="3">
+        <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>60</v>
+        <v>400</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.1</v>
       </c>
       <c r="E7" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1.75</v>
+        <v>2.15</v>
+      </c>
+      <c r="F7">
+        <v>3125</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
+      <c r="B8" s="3">
+        <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>70</v>
+        <v>1000</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="E8" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1.8</v>
+        <v>2.5</v>
+      </c>
+      <c r="F8">
+        <v>15625</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
+      <c r="B9" s="3">
+        <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>80</v>
+        <v>1500</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.18</v>
       </c>
       <c r="E9" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1.85</v>
+        <v>2.93</v>
+      </c>
+      <c r="F9">
+        <v>78125</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
+      <c r="B10" s="3">
+        <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>90</v>
+        <v>2000</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.22</v>
       </c>
       <c r="E10" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1.9</v>
+        <v>3.41</v>
+      </c>
+      <c r="F10">
+        <v>390625</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
+      <c r="B11" s="3">
+        <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>100</v>
+        <v>2500</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.26</v>
       </c>
       <c r="E11" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1.95</v>
+        <v>3.98</v>
+      </c>
+      <c r="F11">
+        <v>1953125</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
+      <c r="B12" s="3">
+        <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>110</v>
+        <v>3000</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.3</v>
       </c>
       <c r="E12" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="F12">
+        <v>9765625</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
+      <c r="B13" s="3">
+        <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>120</v>
+        <v>3500</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.34</v>
       </c>
       <c r="E13" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="F13" s="6">
-        <v>2.0499999999999998</v>
+        <v>5.41</v>
+      </c>
+      <c r="F13">
+        <v>48828125</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
+      <c r="B14" s="3">
+        <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>130</v>
+        <v>4000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.38</v>
       </c>
       <c r="E14" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2.1</v>
+        <v>6.31</v>
+      </c>
+      <c r="F14">
+        <v>244140625</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>47</v>
+      <c r="B15" s="3">
+        <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>140</v>
+        <v>5000</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.5</v>
       </c>
       <c r="E15" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2.15</v>
+        <v>7.2</v>
+      </c>
+      <c r="F15">
+        <v>1220703125</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
+      <c r="B16" s="3">
+        <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>150</v>
+        <v>6000</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.6</v>
       </c>
       <c r="E16" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="F16" s="6">
-        <v>2.2000000000000002</v>
+        <v>8.6</v>
+      </c>
+      <c r="F16">
+        <v>6103515625</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>53</v>
+      <c r="B17" s="3">
+        <v>16</v>
       </c>
       <c r="C17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>30517578125</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="F18">
+        <v>152587890625</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="F19">
+        <v>762939453125</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
-        <v>160</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="6">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>3814697265625</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>19073486328125</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>95367431640625</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>476837158203125</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>2384185791015620</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>1.19209289550781E+16</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1121,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1154,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
